--- a/hans/OcrmExpenseEntity.xlsx
+++ b/hans/OcrmExpenseEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="607">
   <si>
     <t>_id</t>
   </si>
@@ -1735,7 +1735,7 @@
     <t>https://hans.pdmarket.cn/crmres/花卉--RMB716_1684912183197_9174.pdf</t>
   </si>
   <si>
-    <t>1684918583693</t>
+    <t>1685690236703</t>
   </si>
   <si>
     <t>宏达航运乔迁，送恭贺花篮</t>
@@ -1804,7 +1804,7 @@
     <t>https://hans.pdmarket.cn/crmres/办公室垃圾袋_1685085057107_364.pdf,https://hans.pdmarket.cn/crmres/办公室纸巾_1685085098984_6144.pdf,https://hans.pdmarket.cn/crmres/咖啡机清洗服务单_1685085150014_3248.pdf,https://hans.pdmarket.cn/crmres/咖啡机清洗付费水单_1685085155179_773.jpg,https://hans.pdmarket.cn/crmres/牛奶两箱_1685085216522_5997.pdf,https://hans.pdmarket.cn/crmres/3月手机账单_1685085306997_9912.pdf,https://hans.pdmarket.cn/crmres/5月停车费_1685085345595_6682.jpg</t>
   </si>
   <si>
-    <t>1685341545645</t>
+    <t>1685690257779</t>
   </si>
   <si>
     <t>何颖 浦发银行 6225 2201 1555 6466</t>
@@ -1825,7 +1825,7 @@
     <t>https://hans.pdmarket.cn/crmres/住宿费_1685085537474_9233.pdf,https://hans.pdmarket.cn/crmres/上海-天津机票_1685085591860_5066.pdf,https://hans.pdmarket.cn/crmres/天津-上海机票_1685085651096_7038.pdf,https://hans.pdmarket.cn/crmres/航空意外险_1685085690299_934.pdf,https://hans.pdmarket.cn/crmres/果篮小票_1685085843610_6582.pdf,https://hans.pdmarket.cn/crmres/2份水果+篮子_1685085850291_7716.jpg,https://hans.pdmarket.cn/crmres/进出港区代理派车费_1685085890346_4815.jpg,https://hans.pdmarket.cn/crmres/机场大巴车费_1685085960645_9134.pdf</t>
   </si>
   <si>
-    <t>1685413119899</t>
+    <t>1685690292428</t>
   </si>
   <si>
     <t>MV DINA OCEAN V23014 天津访船   何颖 浦发银行 6225 2201 1555 6466</t>
@@ -6374,7 +6374,7 @@
         <v>424</v>
       </c>
       <c r="X64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
@@ -6587,7 +6587,7 @@
         <v>438</v>
       </c>
       <c r="X67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
@@ -8111,7 +8111,7 @@
         <v>416</v>
       </c>
       <c r="X88" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
@@ -8124,9 +8124,15 @@
       <c r="C89" t="s">
         <v>572</v>
       </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
       <c r="E89" t="s">
         <v>28</v>
       </c>
+      <c r="F89" t="s">
+        <v>29</v>
+      </c>
       <c r="G89" t="s">
         <v>30</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>34</v>
       </c>
       <c r="M89" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N89" t="s">
         <v>30</v>
@@ -8179,7 +8185,7 @@
         <v>576</v>
       </c>
       <c r="X89" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -8405,9 +8411,15 @@
       <c r="C93" t="s">
         <v>595</v>
       </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
       <c r="E93" t="s">
         <v>28</v>
       </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
       <c r="G93" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8439,7 @@
         <v>34</v>
       </c>
       <c r="M93" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N93" t="s">
         <v>30</v>
@@ -8460,7 +8472,7 @@
         <v>599</v>
       </c>
       <c r="X93" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
@@ -8473,9 +8485,15 @@
       <c r="C94" t="s">
         <v>602</v>
       </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
       <c r="E94" t="s">
         <v>460</v>
       </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
       <c r="G94" t="s">
         <v>30</v>
       </c>
@@ -8495,7 +8513,7 @@
         <v>34</v>
       </c>
       <c r="M94" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N94" t="s">
         <v>30</v>
@@ -8528,7 +8546,7 @@
         <v>606</v>
       </c>
       <c r="X94" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmExpenseEntity.xlsx
+++ b/hans/OcrmExpenseEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="622">
   <si>
     <t>_id</t>
   </si>
@@ -1835,6 +1835,51 @@
   </si>
   <si>
     <t>2462</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>1685934562505</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/INVOICE6月年检 FIONA TOUCH_1685934549181_4088.pdf</t>
+  </si>
+  <si>
+    <t>FIONA SHIPPING LTD</t>
+  </si>
+  <si>
+    <t>1685934680404</t>
+  </si>
+  <si>
+    <t>FIONA+TOUCH 6月二家年检</t>
+  </si>
+  <si>
+    <t>1685934567016</t>
+  </si>
+  <si>
+    <t>6275</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>1685934645117</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/INVOICE6月年检 FIONA TOUCH_1685934637877_5633.pdf</t>
+  </si>
+  <si>
+    <t>TOUCHSTONE SHIPPING LTD</t>
+  </si>
+  <si>
+    <t>1685934675904</t>
+  </si>
+  <si>
+    <t>TOUCH + FIONA 6月二家公司年检</t>
+  </si>
+  <si>
+    <t>1685934652351</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:X96"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8549,6 +8594,142 @@
         <v>43</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>607</v>
+      </c>
+      <c r="B95" t="s">
+        <v>608</v>
+      </c>
+      <c r="C95" t="s">
+        <v>609</v>
+      </c>
+      <c r="E95" t="s">
+        <v>610</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>611</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" t="s">
+        <v>357</v>
+      </c>
+      <c r="N95" t="s">
+        <v>211</v>
+      </c>
+      <c r="O95" t="s">
+        <v>30</v>
+      </c>
+      <c r="P95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>612</v>
+      </c>
+      <c r="R95" t="s">
+        <v>613</v>
+      </c>
+      <c r="S95" t="s">
+        <v>188</v>
+      </c>
+      <c r="T95" t="s">
+        <v>36</v>
+      </c>
+      <c r="U95" t="s">
+        <v>189</v>
+      </c>
+      <c r="V95" t="s">
+        <v>190</v>
+      </c>
+      <c r="W95" t="s">
+        <v>614</v>
+      </c>
+      <c r="X95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>615</v>
+      </c>
+      <c r="B96" t="s">
+        <v>616</v>
+      </c>
+      <c r="C96" t="s">
+        <v>617</v>
+      </c>
+      <c r="E96" t="s">
+        <v>618</v>
+      </c>
+      <c r="G96" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" t="s">
+        <v>619</v>
+      </c>
+      <c r="I96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>357</v>
+      </c>
+      <c r="N96" t="s">
+        <v>211</v>
+      </c>
+      <c r="O96" t="s">
+        <v>30</v>
+      </c>
+      <c r="P96" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>620</v>
+      </c>
+      <c r="R96" t="s">
+        <v>621</v>
+      </c>
+      <c r="S96" t="s">
+        <v>188</v>
+      </c>
+      <c r="T96" t="s">
+        <v>36</v>
+      </c>
+      <c r="U96" t="s">
+        <v>189</v>
+      </c>
+      <c r="V96" t="s">
+        <v>190</v>
+      </c>
+      <c r="W96" t="s">
+        <v>614</v>
+      </c>
+      <c r="X96" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/hans/OcrmExpenseEntity.xlsx
+++ b/hans/OcrmExpenseEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="765">
   <si>
     <t>_id</t>
   </si>
@@ -1849,7 +1849,7 @@
     <t>FIONA SHIPPING LTD</t>
   </si>
   <si>
-    <t>1685934680404</t>
+    <t>1686902932841</t>
   </si>
   <si>
     <t>FIONA+TOUCH 6月二家年检</t>
@@ -1873,13 +1873,442 @@
     <t>TOUCHSTONE SHIPPING LTD</t>
   </si>
   <si>
-    <t>1685934675904</t>
+    <t>1686902926327</t>
   </si>
   <si>
     <t>TOUCH + FIONA 6月二家公司年检</t>
   </si>
   <si>
     <t>1685934652351</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>1685950995776</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/031002200611_55226789_1685950905415_8319.pdf,https://hans.pdmarket.cn/crmres/031002200611_55226790_1685950913580_2911.pdf</t>
+  </si>
+  <si>
+    <t>1686902904836</t>
+  </si>
+  <si>
+    <t>请钢管客户和地面公司、竺总喝酒</t>
+  </si>
+  <si>
+    <t>1685951006764</t>
+  </si>
+  <si>
+    <t>16059</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1686216132000</t>
+  </si>
+  <si>
+    <t>重庆科邻新商贸有限公司</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/response0_1678108888873_3876.png</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>1686046683900</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>1686367157384</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/餐费发票_1686367097622_8766.pdf</t>
+  </si>
+  <si>
+    <t>1686902862111</t>
+  </si>
+  <si>
+    <t>账期：2023年06月30日</t>
+  </si>
+  <si>
+    <t>1686367144268</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>1686536352865</t>
+  </si>
+  <si>
+    <t>1686621917219</t>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t>1686536167290</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>1686536175104</t>
+  </si>
+  <si>
+    <t>1686621905477</t>
+  </si>
+  <si>
+    <t>社保</t>
+  </si>
+  <si>
+    <t>1686535995518</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1686536223028</t>
+  </si>
+  <si>
+    <t>1686643266271</t>
+  </si>
+  <si>
+    <t>1686536041186</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>1686622158199</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/社会保险费缴纳通知书5月_1686536313384_8217.pdf</t>
+  </si>
+  <si>
+    <t>1686643824394</t>
+  </si>
+  <si>
+    <t>1686621972287</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>1686557668706</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/7bfc08bca28e7bb6b7c9b566dcc9265_1686557625221_6236.jpg</t>
+  </si>
+  <si>
+    <t>1686902839619</t>
+  </si>
+  <si>
+    <t>公司贵州旅游交通费</t>
+  </si>
+  <si>
+    <t>1686557672531</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>1686622855137</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/5月个税_1686622821101_2844.png</t>
+  </si>
+  <si>
+    <t>1686643252990</t>
+  </si>
+  <si>
+    <t>1686622671134</t>
+  </si>
+  <si>
+    <t>1826.18</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>1686639653930</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/转账电子凭证 (1)_1686639693486_4560.pdf</t>
+  </si>
+  <si>
+    <t>1686902824710</t>
+  </si>
+  <si>
+    <t>包月保洁费</t>
+  </si>
+  <si>
+    <t>1686639706569</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>1687510887000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/【去哪儿网】机票订单电子报销凭证_1686647152418_2985.zip,https://hans.pdmarket.cn/crmres/梵净山酒店 4200_1686647207909_1627.pdf,https://hans.pdmarket.cn/crmres/小七孔酒店 2698_1686647215431_1917.pdf,https://hans.pdmarket.cn/crmres/租车1 1678_1686647262831_6425.jpg,https://hans.pdmarket.cn/crmres/租车2 1533_1686647270783_4752.jpg,https://hans.pdmarket.cn/crmres/高速费车1 816_1686647324393_6273.jpg,https://hans.pdmarket.cn/crmres/高速费车2 796_1686647332029_8406.jpg,https://hans.pdmarket.cn/crmres/景区票 7720_1686647378572_9793.zip,https://hans.pdmarket.cn/crmres/加油费 2015_1686647435504_7639.19.zip,https://hans.pdmarket.cn/crmres/餐费 1410_1686647476703_1469.zip,https://hans.pdmarket.cn/crmres/打车 181_1686647517078_9477.jpg</t>
+  </si>
+  <si>
+    <t>1686906252643</t>
+  </si>
+  <si>
+    <t>公司春游费用</t>
+  </si>
+  <si>
+    <t>1686905396088</t>
+  </si>
+  <si>
+    <t>40408.19</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>1687511799121</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/咖啡 299_1686647894435_1355.42.zip,https://hans.pdmarket.cn/crmres/客餐禛航-660_1686647945977_6162.jpg</t>
+  </si>
+  <si>
+    <t>1686902815766</t>
+  </si>
+  <si>
+    <t>咖啡豆，客餐</t>
+  </si>
+  <si>
+    <t>1686648175605</t>
+  </si>
+  <si>
+    <t>959.42</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>1686909729000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/机票费用_1686650597701_5046.zip,https://hans.pdmarket.cn/crmres/餐费_1686650669306_3315.zip,https://hans.pdmarket.cn/crmres/酒店_1686650717065_8210.zip,https://hans.pdmarket.cn/crmres/停车费_1686650952369_3388.zip</t>
+  </si>
+  <si>
+    <t>1686902767840</t>
+  </si>
+  <si>
+    <t>公司贵州团建</t>
+  </si>
+  <si>
+    <t>1686886855212</t>
+  </si>
+  <si>
+    <t>18058</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>1686711794774</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/转账电子凭证 (2)_1686711858115_3561.pdf</t>
+  </si>
+  <si>
+    <t>1686902612206</t>
+  </si>
+  <si>
+    <t>微信转账无发票</t>
+  </si>
+  <si>
+    <t>1686711871856</t>
+  </si>
+  <si>
+    <t>10800</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>1686713125130</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/f668596b4a9022abd5164d7432f917c_1686713169584_6147.jpg</t>
+  </si>
+  <si>
+    <t>1686902603156</t>
+  </si>
+  <si>
+    <t>餐饮</t>
+  </si>
+  <si>
+    <t>1686713178296</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>1688112841000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/打车费（机场～住地）_1686730553045_4677.pdf</t>
+  </si>
+  <si>
+    <t>1687166119793</t>
+  </si>
+  <si>
+    <t>账期：2023年6月30日</t>
+  </si>
+  <si>
+    <t>1687139400234</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>1688031798000</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/餐费1_1686736009920_7459.jpg,https://hans.pdmarket.cn/crmres/餐费2_1686736015136_9023.jpg,https://hans.pdmarket.cn/crmres/上海飞贵阳机票_1686736021052_2111.jpg,https://hans.pdmarket.cn/crmres/停车费1_1686736026960_5748.jpg,https://hans.pdmarket.cn/crmres/停车费 高速路费 出租车费_1686736033680_4351.pdf</t>
+  </si>
+  <si>
+    <t>1687139222945</t>
+  </si>
+  <si>
+    <t>贵州公司团建</t>
+  </si>
+  <si>
+    <t>1686906209623</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>1686908910868</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/体检发票1_1686736363836_9204.pdf,https://hans.pdmarket.cn/crmres/体检发票2_1686736368190_7481.pdf,https://hans.pdmarket.cn/crmres/体检发票3_1686736373373_3500.pdf,https://hans.pdmarket.cn/crmres/6月停车费_1686736378929_9040.jpg</t>
+  </si>
+  <si>
+    <t>1686902582463</t>
+  </si>
+  <si>
+    <t>1686736395753</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>1687487461994</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/体检发票_1686796306376_8534.pdf</t>
+  </si>
+  <si>
+    <t>1686902567266</t>
+  </si>
+  <si>
+    <t>2023体检费</t>
+  </si>
+  <si>
+    <t>1686796233412</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>1687489980911</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/到付快递签收费 12_1686885250610_8052.jpg,https://hans.pdmarket.cn/crmres/贵州团建机场来回打车费 287_1686885263787_5766.jpg</t>
+  </si>
+  <si>
+    <t>1686902537756</t>
+  </si>
+  <si>
+    <t>报销</t>
+  </si>
+  <si>
+    <t>1686885092541</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>1687226451587</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/转账电子凭证 (3)_1687226600564_8535.pdf</t>
+  </si>
+  <si>
+    <t>1687228659958</t>
+  </si>
+  <si>
+    <t>1687226611744</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>1687231712572</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/230615阿里企业邮箱合同--亚欧船舶管理有限公司（5用户）_1687231840427_3759.pdf</t>
+  </si>
+  <si>
+    <t>1687231861241</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/logo-漢洋图标_1681270332674_2520.png</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>吴克林</t>
+  </si>
+  <si>
+    <t>亚欧邮箱服务费</t>
+  </si>
+  <si>
+    <t>1687231855169</t>
+  </si>
+  <si>
+    <t>1800</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +2352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X118"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8604,9 +9033,15 @@
       <c r="C95" t="s">
         <v>609</v>
       </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
       <c r="E95" t="s">
         <v>610</v>
       </c>
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
       <c r="G95" t="s">
         <v>30</v>
       </c>
@@ -8626,7 +9061,7 @@
         <v>34</v>
       </c>
       <c r="M95" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N95" t="s">
         <v>211</v>
@@ -8659,7 +9094,7 @@
         <v>614</v>
       </c>
       <c r="X95" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
@@ -8672,9 +9107,15 @@
       <c r="C96" t="s">
         <v>617</v>
       </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
       <c r="E96" t="s">
         <v>618</v>
       </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
       <c r="G96" t="s">
         <v>30</v>
       </c>
@@ -8694,7 +9135,7 @@
         <v>34</v>
       </c>
       <c r="M96" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N96" t="s">
         <v>211</v>
@@ -8727,7 +9168,1587 @@
         <v>614</v>
       </c>
       <c r="X96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>622</v>
+      </c>
+      <c r="B97" t="s">
+        <v>623</v>
+      </c>
+      <c r="C97" t="s">
+        <v>624</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s">
+        <v>625</v>
+      </c>
+      <c r="I97" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" t="s">
+        <v>30</v>
+      </c>
+      <c r="O97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P97" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>626</v>
+      </c>
+      <c r="R97" t="s">
+        <v>627</v>
+      </c>
+      <c r="S97" t="s">
+        <v>205</v>
+      </c>
+      <c r="T97" t="s">
+        <v>39</v>
+      </c>
+      <c r="U97" t="s">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s">
+        <v>628</v>
+      </c>
+      <c r="X97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>629</v>
+      </c>
+      <c r="B98" t="s">
+        <v>630</v>
+      </c>
+      <c r="E98" t="s">
+        <v>631</v>
+      </c>
+      <c r="G98" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s">
+        <v>632</v>
+      </c>
+      <c r="J98" t="s">
+        <v>211</v>
+      </c>
+      <c r="K98" t="s">
+        <v>633</v>
+      </c>
+      <c r="L98" t="s">
+        <v>633</v>
+      </c>
+      <c r="M98" t="s">
+        <v>357</v>
+      </c>
+      <c r="N98" t="s">
+        <v>30</v>
+      </c>
+      <c r="O98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P98" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>172</v>
+      </c>
+      <c r="R98" t="s">
+        <v>634</v>
+      </c>
+      <c r="S98" t="s">
+        <v>632</v>
+      </c>
+      <c r="T98" t="s">
+        <v>211</v>
+      </c>
+      <c r="U98" t="s">
+        <v>633</v>
+      </c>
+      <c r="V98" t="s">
+        <v>633</v>
+      </c>
+      <c r="W98" t="s">
+        <v>577</v>
+      </c>
+      <c r="X98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" t="s">
+        <v>636</v>
+      </c>
+      <c r="C99" t="s">
+        <v>637</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s">
+        <v>638</v>
+      </c>
+      <c r="I99" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>35</v>
+      </c>
+      <c r="N99" t="s">
+        <v>30</v>
+      </c>
+      <c r="O99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>639</v>
+      </c>
+      <c r="R99" t="s">
+        <v>640</v>
+      </c>
+      <c r="S99" t="s">
+        <v>102</v>
+      </c>
+      <c r="T99" t="s">
+        <v>103</v>
+      </c>
+      <c r="U99" t="s">
+        <v>104</v>
+      </c>
+      <c r="V99" t="s">
+        <v>105</v>
+      </c>
+      <c r="W99" t="s">
+        <v>641</v>
+      </c>
+      <c r="X99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>642</v>
+      </c>
+      <c r="B100" t="s">
+        <v>643</v>
+      </c>
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" t="s">
+        <v>165</v>
+      </c>
+      <c r="F100" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" t="s">
+        <v>644</v>
+      </c>
+      <c r="I100" t="s">
+        <v>166</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" t="s">
+        <v>167</v>
+      </c>
+      <c r="L100" t="s">
+        <v>168</v>
+      </c>
+      <c r="M100" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" t="s">
+        <v>211</v>
+      </c>
+      <c r="O100" t="s">
+        <v>30</v>
+      </c>
+      <c r="P100" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>645</v>
+      </c>
+      <c r="R100" t="s">
+        <v>646</v>
+      </c>
+      <c r="S100" t="s">
+        <v>166</v>
+      </c>
+      <c r="T100" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" t="s">
+        <v>167</v>
+      </c>
+      <c r="V100" t="s">
+        <v>168</v>
+      </c>
+      <c r="W100" t="s">
+        <v>488</v>
+      </c>
+      <c r="X100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>647</v>
+      </c>
+      <c r="B101" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" t="s">
+        <v>164</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>649</v>
+      </c>
+      <c r="I101" t="s">
+        <v>166</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>167</v>
+      </c>
+      <c r="L101" t="s">
+        <v>168</v>
+      </c>
+      <c r="M101" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" t="s">
+        <v>211</v>
+      </c>
+      <c r="O101" t="s">
+        <v>30</v>
+      </c>
+      <c r="P101" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>650</v>
+      </c>
+      <c r="R101" t="s">
+        <v>651</v>
+      </c>
+      <c r="S101" t="s">
+        <v>166</v>
+      </c>
+      <c r="T101" t="s">
+        <v>43</v>
+      </c>
+      <c r="U101" t="s">
+        <v>167</v>
+      </c>
+      <c r="V101" t="s">
+        <v>168</v>
+      </c>
+      <c r="W101" t="s">
+        <v>652</v>
+      </c>
+      <c r="X101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>653</v>
+      </c>
+      <c r="B102" t="s">
+        <v>654</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" t="s">
+        <v>655</v>
+      </c>
+      <c r="I102" t="s">
+        <v>166</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>167</v>
+      </c>
+      <c r="L102" t="s">
+        <v>168</v>
+      </c>
+      <c r="M102" t="s">
+        <v>35</v>
+      </c>
+      <c r="N102" t="s">
+        <v>211</v>
+      </c>
+      <c r="O102" t="s">
+        <v>30</v>
+      </c>
+      <c r="P102" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>645</v>
+      </c>
+      <c r="R102" t="s">
+        <v>656</v>
+      </c>
+      <c r="S102" t="s">
+        <v>166</v>
+      </c>
+      <c r="T102" t="s">
+        <v>43</v>
+      </c>
+      <c r="U102" t="s">
+        <v>167</v>
+      </c>
+      <c r="V102" t="s">
+        <v>168</v>
+      </c>
+      <c r="W102" t="s">
+        <v>274</v>
+      </c>
+      <c r="X102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>657</v>
+      </c>
+      <c r="B103" t="s">
+        <v>658</v>
+      </c>
+      <c r="C103" t="s">
+        <v>659</v>
+      </c>
+      <c r="D103" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s">
+        <v>660</v>
+      </c>
+      <c r="I103" t="s">
+        <v>166</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" t="s">
+        <v>167</v>
+      </c>
+      <c r="L103" t="s">
+        <v>168</v>
+      </c>
+      <c r="M103" t="s">
+        <v>35</v>
+      </c>
+      <c r="N103" t="s">
+        <v>211</v>
+      </c>
+      <c r="O103" t="s">
+        <v>30</v>
+      </c>
+      <c r="P103" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>650</v>
+      </c>
+      <c r="R103" t="s">
+        <v>661</v>
+      </c>
+      <c r="S103" t="s">
+        <v>166</v>
+      </c>
+      <c r="T103" t="s">
+        <v>43</v>
+      </c>
+      <c r="U103" t="s">
+        <v>167</v>
+      </c>
+      <c r="V103" t="s">
+        <v>168</v>
+      </c>
+      <c r="W103" t="s">
+        <v>525</v>
+      </c>
+      <c r="X103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>662</v>
+      </c>
+      <c r="B104" t="s">
+        <v>663</v>
+      </c>
+      <c r="C104" t="s">
+        <v>664</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" t="s">
+        <v>665</v>
+      </c>
+      <c r="I104" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" t="s">
+        <v>35</v>
+      </c>
+      <c r="N104" t="s">
+        <v>30</v>
+      </c>
+      <c r="O104" t="s">
+        <v>30</v>
+      </c>
+      <c r="P104" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>666</v>
+      </c>
+      <c r="R104" t="s">
+        <v>667</v>
+      </c>
+      <c r="S104" t="s">
+        <v>205</v>
+      </c>
+      <c r="T104" t="s">
+        <v>39</v>
+      </c>
+      <c r="U104" t="s">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s">
+        <v>489</v>
+      </c>
+      <c r="X104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>668</v>
+      </c>
+      <c r="B105" t="s">
+        <v>669</v>
+      </c>
+      <c r="C105" t="s">
+        <v>670</v>
+      </c>
+      <c r="D105" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s">
+        <v>671</v>
+      </c>
+      <c r="I105" t="s">
+        <v>166</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>167</v>
+      </c>
+      <c r="L105" t="s">
+        <v>168</v>
+      </c>
+      <c r="M105" t="s">
+        <v>35</v>
+      </c>
+      <c r="N105" t="s">
+        <v>211</v>
+      </c>
+      <c r="O105" t="s">
+        <v>30</v>
+      </c>
+      <c r="P105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>493</v>
+      </c>
+      <c r="R105" t="s">
+        <v>672</v>
+      </c>
+      <c r="S105" t="s">
+        <v>166</v>
+      </c>
+      <c r="T105" t="s">
+        <v>43</v>
+      </c>
+      <c r="U105" t="s">
+        <v>167</v>
+      </c>
+      <c r="V105" t="s">
+        <v>168</v>
+      </c>
+      <c r="W105" t="s">
+        <v>673</v>
+      </c>
+      <c r="X105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>674</v>
+      </c>
+      <c r="B106" t="s">
+        <v>675</v>
+      </c>
+      <c r="C106" t="s">
+        <v>676</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s">
+        <v>677</v>
+      </c>
+      <c r="I106" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106" t="s">
+        <v>34</v>
+      </c>
+      <c r="M106" t="s">
+        <v>35</v>
+      </c>
+      <c r="N106" t="s">
+        <v>30</v>
+      </c>
+      <c r="O106" t="s">
+        <v>30</v>
+      </c>
+      <c r="P106" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>678</v>
+      </c>
+      <c r="R106" t="s">
+        <v>679</v>
+      </c>
+      <c r="S106" t="s">
+        <v>205</v>
+      </c>
+      <c r="T106" t="s">
+        <v>39</v>
+      </c>
+      <c r="U106" t="s">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s">
+        <v>87</v>
+      </c>
+      <c r="X106" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>680</v>
+      </c>
+      <c r="B107" t="s">
+        <v>681</v>
+      </c>
+      <c r="C107" t="s">
+        <v>682</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" t="s">
+        <v>683</v>
+      </c>
+      <c r="I107" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" t="s">
+        <v>357</v>
+      </c>
+      <c r="N107" t="s">
+        <v>30</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>684</v>
+      </c>
+      <c r="R107" t="s">
+        <v>685</v>
+      </c>
+      <c r="S107" t="s">
+        <v>121</v>
+      </c>
+      <c r="T107" t="s">
+        <v>122</v>
+      </c>
+      <c r="U107" t="s">
+        <v>123</v>
+      </c>
+      <c r="V107" t="s">
+        <v>124</v>
+      </c>
+      <c r="W107" t="s">
+        <v>686</v>
+      </c>
+      <c r="X107" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>687</v>
+      </c>
+      <c r="B108" t="s">
+        <v>688</v>
+      </c>
+      <c r="C108" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s">
+        <v>690</v>
+      </c>
+      <c r="I108" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="s">
+        <v>35</v>
+      </c>
+      <c r="N108" t="s">
+        <v>30</v>
+      </c>
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>691</v>
+      </c>
+      <c r="R108" t="s">
+        <v>692</v>
+      </c>
+      <c r="S108" t="s">
+        <v>121</v>
+      </c>
+      <c r="T108" t="s">
+        <v>122</v>
+      </c>
+      <c r="U108" t="s">
+        <v>123</v>
+      </c>
+      <c r="V108" t="s">
+        <v>124</v>
+      </c>
+      <c r="W108" t="s">
+        <v>693</v>
+      </c>
+      <c r="X108" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>694</v>
+      </c>
+      <c r="B109" t="s">
+        <v>695</v>
+      </c>
+      <c r="C109" t="s">
+        <v>696</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" t="s">
+        <v>697</v>
+      </c>
+      <c r="I109" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>35</v>
+      </c>
+      <c r="N109" t="s">
+        <v>30</v>
+      </c>
+      <c r="O109" t="s">
+        <v>30</v>
+      </c>
+      <c r="P109" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>698</v>
+      </c>
+      <c r="R109" t="s">
+        <v>699</v>
+      </c>
+      <c r="S109" t="s">
+        <v>150</v>
+      </c>
+      <c r="T109" t="s">
+        <v>151</v>
+      </c>
+      <c r="U109" t="s">
+        <v>152</v>
+      </c>
+      <c r="V109" t="s">
+        <v>153</v>
+      </c>
+      <c r="W109" t="s">
+        <v>700</v>
+      </c>
+      <c r="X109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>701</v>
+      </c>
+      <c r="B110" t="s">
+        <v>702</v>
+      </c>
+      <c r="C110" t="s">
+        <v>703</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" t="s">
+        <v>704</v>
+      </c>
+      <c r="I110" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" t="s">
+        <v>35</v>
+      </c>
+      <c r="N110" t="s">
+        <v>30</v>
+      </c>
+      <c r="O110" t="s">
+        <v>30</v>
+      </c>
+      <c r="P110" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>705</v>
+      </c>
+      <c r="R110" t="s">
+        <v>706</v>
+      </c>
+      <c r="S110" t="s">
+        <v>205</v>
+      </c>
+      <c r="T110" t="s">
+        <v>39</v>
+      </c>
+      <c r="U110" t="s">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s">
+        <v>707</v>
+      </c>
+      <c r="X110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>708</v>
+      </c>
+      <c r="B111" t="s">
+        <v>709</v>
+      </c>
+      <c r="C111" t="s">
+        <v>710</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" t="s">
+        <v>711</v>
+      </c>
+      <c r="I111" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
+        <v>35</v>
+      </c>
+      <c r="N111" t="s">
+        <v>30</v>
+      </c>
+      <c r="O111" t="s">
+        <v>30</v>
+      </c>
+      <c r="P111" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>712</v>
+      </c>
+      <c r="R111" t="s">
+        <v>713</v>
+      </c>
+      <c r="S111" t="s">
+        <v>205</v>
+      </c>
+      <c r="T111" t="s">
+        <v>39</v>
+      </c>
+      <c r="U111" t="s">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s">
+        <v>714</v>
+      </c>
+      <c r="X111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>715</v>
+      </c>
+      <c r="B112" t="s">
+        <v>716</v>
+      </c>
+      <c r="C112" t="s">
+        <v>717</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" t="s">
+        <v>718</v>
+      </c>
+      <c r="I112" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" t="s">
+        <v>357</v>
+      </c>
+      <c r="N112" t="s">
+        <v>30</v>
+      </c>
+      <c r="O112" t="s">
+        <v>30</v>
+      </c>
+      <c r="P112" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>719</v>
+      </c>
+      <c r="R112" t="s">
+        <v>720</v>
+      </c>
+      <c r="S112" t="s">
+        <v>102</v>
+      </c>
+      <c r="T112" t="s">
+        <v>103</v>
+      </c>
+      <c r="U112" t="s">
+        <v>104</v>
+      </c>
+      <c r="V112" t="s">
+        <v>105</v>
+      </c>
+      <c r="W112" t="s">
+        <v>721</v>
+      </c>
+      <c r="X112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>722</v>
+      </c>
+      <c r="B113" t="s">
+        <v>723</v>
+      </c>
+      <c r="C113" t="s">
+        <v>724</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s">
+        <v>725</v>
+      </c>
+      <c r="I113" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>357</v>
+      </c>
+      <c r="N113" t="s">
+        <v>30</v>
+      </c>
+      <c r="O113" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>726</v>
+      </c>
+      <c r="R113" t="s">
+        <v>727</v>
+      </c>
+      <c r="S113" t="s">
+        <v>140</v>
+      </c>
+      <c r="T113" t="s">
+        <v>141</v>
+      </c>
+      <c r="U113" t="s">
+        <v>142</v>
+      </c>
+      <c r="V113" t="s">
+        <v>143</v>
+      </c>
+      <c r="W113" t="s">
+        <v>728</v>
+      </c>
+      <c r="X113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>729</v>
+      </c>
+      <c r="B114" t="s">
+        <v>730</v>
+      </c>
+      <c r="C114" t="s">
+        <v>731</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" t="s">
+        <v>732</v>
+      </c>
+      <c r="I114" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" t="s">
+        <v>34</v>
+      </c>
+      <c r="M114" t="s">
+        <v>35</v>
+      </c>
+      <c r="N114" t="s">
+        <v>30</v>
+      </c>
+      <c r="O114" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>597</v>
+      </c>
+      <c r="R114" t="s">
+        <v>733</v>
+      </c>
+      <c r="S114" t="s">
+        <v>140</v>
+      </c>
+      <c r="T114" t="s">
+        <v>141</v>
+      </c>
+      <c r="U114" t="s">
+        <v>142</v>
+      </c>
+      <c r="V114" t="s">
+        <v>143</v>
+      </c>
+      <c r="W114" t="s">
+        <v>734</v>
+      </c>
+      <c r="X114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>735</v>
+      </c>
+      <c r="B115" t="s">
+        <v>736</v>
+      </c>
+      <c r="C115" t="s">
+        <v>737</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" t="s">
+        <v>738</v>
+      </c>
+      <c r="I115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" t="s">
+        <v>35</v>
+      </c>
+      <c r="N115" t="s">
+        <v>30</v>
+      </c>
+      <c r="O115" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>739</v>
+      </c>
+      <c r="R115" t="s">
+        <v>740</v>
+      </c>
+      <c r="S115" t="s">
+        <v>150</v>
+      </c>
+      <c r="T115" t="s">
+        <v>151</v>
+      </c>
+      <c r="U115" t="s">
+        <v>152</v>
+      </c>
+      <c r="V115" t="s">
+        <v>153</v>
+      </c>
+      <c r="W115" t="s">
+        <v>741</v>
+      </c>
+      <c r="X115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>742</v>
+      </c>
+      <c r="B116" t="s">
+        <v>743</v>
+      </c>
+      <c r="C116" t="s">
+        <v>744</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s">
+        <v>745</v>
+      </c>
+      <c r="I116" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" t="s">
+        <v>34</v>
+      </c>
+      <c r="M116" t="s">
+        <v>35</v>
+      </c>
+      <c r="N116" t="s">
+        <v>211</v>
+      </c>
+      <c r="O116" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>746</v>
+      </c>
+      <c r="R116" t="s">
+        <v>747</v>
+      </c>
+      <c r="S116" t="s">
+        <v>166</v>
+      </c>
+      <c r="T116" t="s">
+        <v>43</v>
+      </c>
+      <c r="U116" t="s">
+        <v>167</v>
+      </c>
+      <c r="V116" t="s">
+        <v>168</v>
+      </c>
+      <c r="W116" t="s">
+        <v>748</v>
+      </c>
+      <c r="X116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>749</v>
+      </c>
+      <c r="B117" t="s">
+        <v>750</v>
+      </c>
+      <c r="C117" t="s">
+        <v>751</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" t="s">
+        <v>752</v>
+      </c>
+      <c r="I117" t="s">
+        <v>188</v>
+      </c>
+      <c r="J117" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" t="s">
+        <v>189</v>
+      </c>
+      <c r="L117" t="s">
+        <v>190</v>
+      </c>
+      <c r="M117" t="s">
+        <v>357</v>
+      </c>
+      <c r="N117" t="s">
+        <v>30</v>
+      </c>
+      <c r="O117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>316</v>
+      </c>
+      <c r="R117" t="s">
+        <v>753</v>
+      </c>
+      <c r="S117" t="s">
+        <v>205</v>
+      </c>
+      <c r="T117" t="s">
+        <v>39</v>
+      </c>
+      <c r="U117" t="s">
+        <v>40</v>
+      </c>
+      <c r="V117" t="s">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s">
+        <v>160</v>
+      </c>
+      <c r="X117" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>754</v>
+      </c>
+      <c r="B118" t="s">
+        <v>755</v>
+      </c>
+      <c r="C118" t="s">
+        <v>756</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" t="s">
+        <v>757</v>
+      </c>
+      <c r="I118" t="s">
+        <v>758</v>
+      </c>
+      <c r="J118" t="s">
+        <v>759</v>
+      </c>
+      <c r="K118" t="s">
+        <v>760</v>
+      </c>
+      <c r="L118" t="s">
+        <v>761</v>
+      </c>
+      <c r="M118" t="s">
+        <v>357</v>
+      </c>
+      <c r="N118" t="s">
+        <v>30</v>
+      </c>
+      <c r="O118" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>762</v>
+      </c>
+      <c r="R118" t="s">
+        <v>763</v>
+      </c>
+      <c r="S118" t="s">
+        <v>205</v>
+      </c>
+      <c r="T118" t="s">
+        <v>39</v>
+      </c>
+      <c r="U118" t="s">
+        <v>40</v>
+      </c>
+      <c r="V118" t="s">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s">
+        <v>764</v>
+      </c>
+      <c r="X118" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/hans/OcrmExpenseEntity.xlsx
+++ b/hans/OcrmExpenseEntity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="785">
   <si>
     <t>_id</t>
   </si>
@@ -1771,7 +1771,7 @@
     <t>1684980000441</t>
   </si>
   <si>
-    <t>1685086772973</t>
+    <t>1687862850802</t>
   </si>
   <si>
     <t>1684979853705</t>
@@ -2065,7 +2065,7 @@
     <t>https://hans.pdmarket.cn/crmres/【去哪儿网】机票订单电子报销凭证_1686647152418_2985.zip,https://hans.pdmarket.cn/crmres/梵净山酒店 4200_1686647207909_1627.pdf,https://hans.pdmarket.cn/crmres/小七孔酒店 2698_1686647215431_1917.pdf,https://hans.pdmarket.cn/crmres/租车1 1678_1686647262831_6425.jpg,https://hans.pdmarket.cn/crmres/租车2 1533_1686647270783_4752.jpg,https://hans.pdmarket.cn/crmres/高速费车1 816_1686647324393_6273.jpg,https://hans.pdmarket.cn/crmres/高速费车2 796_1686647332029_8406.jpg,https://hans.pdmarket.cn/crmres/景区票 7720_1686647378572_9793.zip,https://hans.pdmarket.cn/crmres/加油费 2015_1686647435504_7639.19.zip,https://hans.pdmarket.cn/crmres/餐费 1410_1686647476703_1469.zip,https://hans.pdmarket.cn/crmres/打车 181_1686647517078_9477.jpg</t>
   </si>
   <si>
-    <t>1686906252643</t>
+    <t>1688109290463</t>
   </si>
   <si>
     <t>公司春游费用</t>
@@ -2170,7 +2170,7 @@
     <t>https://hans.pdmarket.cn/crmres/打车费（机场～住地）_1686730553045_4677.pdf</t>
   </si>
   <si>
-    <t>1687166119793</t>
+    <t>1688109225562</t>
   </si>
   <si>
     <t>账期：2023年6月30日</t>
@@ -2191,7 +2191,7 @@
     <t>https://hans.pdmarket.cn/crmres/餐费1_1686736009920_7459.jpg,https://hans.pdmarket.cn/crmres/餐费2_1686736015136_9023.jpg,https://hans.pdmarket.cn/crmres/上海飞贵阳机票_1686736021052_2111.jpg,https://hans.pdmarket.cn/crmres/停车费1_1686736026960_5748.jpg,https://hans.pdmarket.cn/crmres/停车费 高速路费 出租车费_1686736033680_4351.pdf</t>
   </si>
   <si>
-    <t>1687139222945</t>
+    <t>1688109219152</t>
   </si>
   <si>
     <t>贵州公司团建</t>
@@ -2272,7 +2272,7 @@
     <t>https://hans.pdmarket.cn/crmres/转账电子凭证 (3)_1687226600564_8535.pdf</t>
   </si>
   <si>
-    <t>1687228659958</t>
+    <t>1688109179604</t>
   </si>
   <si>
     <t>1687226611744</t>
@@ -2287,19 +2287,7 @@
     <t>https://hans.pdmarket.cn/crmres/230615阿里企业邮箱合同--亚欧船舶管理有限公司（5用户）_1687231840427_3759.pdf</t>
   </si>
   <si>
-    <t>1687231861241</t>
-  </si>
-  <si>
-    <t>https://hans.pdmarket.cn/crmres/logo-漢洋图标_1681270332674_2520.png</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Collin</t>
-  </si>
-  <si>
-    <t>吴克林</t>
+    <t>1688109171416</t>
   </si>
   <si>
     <t>亚欧邮箱服务费</t>
@@ -2309,6 +2297,78 @@
   </si>
   <si>
     <t>1800</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1688091454851</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/扫描0001_1687313930760_9849.pdf</t>
+  </si>
+  <si>
+    <t>1688109162756</t>
+  </si>
+  <si>
+    <t>帐期6月30日</t>
+  </si>
+  <si>
+    <t>1687314033819</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>1687750249763</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/餐饮_1709_1687750328265_6689.00元_2023.06.24_上海湘宾餐饮管理有限公司_031002200611_61084242.pdf</t>
+  </si>
+  <si>
+    <t>1688109153157</t>
+  </si>
+  <si>
+    <t>宴请上港物流陈总，柳小辉等</t>
+  </si>
+  <si>
+    <t>1687750393944</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>1687767599038</t>
+  </si>
+  <si>
+    <t>https://hans.pdmarket.cn/crmres/6_1687767745764_363.7晚费-1750.pdf,https://hans.pdmarket.cn/crmres/6_1687767750568_8452.8餐费-1116.jpg,https://hans.pdmarket.cn/crmres/6_1687767755830_6927.9晚费-1148.pdf,https://hans.pdmarket.cn/crmres/6_1687767761012_2698.10晚费-1436.pdf,https://hans.pdmarket.cn/crmres/6_1687767765686_3777.11午餐-214.jpg,https://hans.pdmarket.cn/crmres/景区小吃-547_1687767815297_3267.doc,https://hans.pdmarket.cn/crmres/团建交通-204_1687767824235_9942.doc</t>
+  </si>
+  <si>
+    <t>1688109067639</t>
+  </si>
+  <si>
+    <t>贵州团建</t>
+  </si>
+  <si>
+    <t>1687767332381</t>
+  </si>
+  <si>
+    <t>6415</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>1687772517829</t>
+  </si>
+  <si>
+    <t>1687772443021</t>
+  </si>
+  <si>
+    <t>110114.68</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X122"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8801,7 +8861,7 @@
         <v>587</v>
       </c>
       <c r="X91" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -8872,7 +8932,7 @@
         <v>587</v>
       </c>
       <c r="X92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
@@ -9903,9 +9963,15 @@
       <c r="C107" t="s">
         <v>682</v>
       </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
       <c r="E107" t="s">
         <v>28</v>
       </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
       <c r="G107" t="s">
         <v>30</v>
       </c>
@@ -9925,7 +9991,7 @@
         <v>34</v>
       </c>
       <c r="M107" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N107" t="s">
         <v>30</v>
@@ -9958,7 +10024,7 @@
         <v>686</v>
       </c>
       <c r="X107" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108">
@@ -10267,9 +10333,15 @@
       <c r="C112" t="s">
         <v>717</v>
       </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
       <c r="E112" t="s">
         <v>28</v>
       </c>
+      <c r="F112" t="s">
+        <v>29</v>
+      </c>
       <c r="G112" t="s">
         <v>30</v>
       </c>
@@ -10289,7 +10361,7 @@
         <v>34</v>
       </c>
       <c r="M112" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N112" t="s">
         <v>30</v>
@@ -10322,7 +10394,7 @@
         <v>721</v>
       </c>
       <c r="X112" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
@@ -10335,9 +10407,15 @@
       <c r="C113" t="s">
         <v>724</v>
       </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
       <c r="E113" t="s">
         <v>28</v>
       </c>
+      <c r="F113" t="s">
+        <v>29</v>
+      </c>
       <c r="G113" t="s">
         <v>30</v>
       </c>
@@ -10357,7 +10435,7 @@
         <v>34</v>
       </c>
       <c r="M113" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N113" t="s">
         <v>30</v>
@@ -10390,7 +10468,7 @@
         <v>728</v>
       </c>
       <c r="X113" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114">
@@ -10625,9 +10703,15 @@
       <c r="C117" t="s">
         <v>751</v>
       </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
       <c r="E117" t="s">
         <v>28</v>
       </c>
+      <c r="F117" t="s">
+        <v>29</v>
+      </c>
       <c r="G117" t="s">
         <v>30</v>
       </c>
@@ -10635,19 +10719,19 @@
         <v>752</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="J117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K117" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="M117" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="N117" t="s">
         <v>30</v>
@@ -10680,7 +10764,7 @@
         <v>160</v>
       </c>
       <c r="X117" t="s">
-        <v>448</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118">
@@ -10693,9 +10777,15 @@
       <c r="C118" t="s">
         <v>756</v>
       </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
       <c r="E118" t="s">
         <v>28</v>
       </c>
+      <c r="F118" t="s">
+        <v>29</v>
+      </c>
       <c r="G118" t="s">
         <v>30</v>
       </c>
@@ -10703,34 +10793,34 @@
         <v>757</v>
       </c>
       <c r="I118" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" t="s">
+        <v>35</v>
+      </c>
+      <c r="N118" t="s">
+        <v>30</v>
+      </c>
+      <c r="O118" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q118" t="s">
         <v>758</v>
       </c>
-      <c r="J118" t="s">
+      <c r="R118" t="s">
         <v>759</v>
-      </c>
-      <c r="K118" t="s">
-        <v>760</v>
-      </c>
-      <c r="L118" t="s">
-        <v>761</v>
-      </c>
-      <c r="M118" t="s">
-        <v>357</v>
-      </c>
-      <c r="N118" t="s">
-        <v>30</v>
-      </c>
-      <c r="O118" t="s">
-        <v>30</v>
-      </c>
-      <c r="P118" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>762</v>
-      </c>
-      <c r="R118" t="s">
-        <v>763</v>
       </c>
       <c r="S118" t="s">
         <v>205</v>
@@ -10745,10 +10835,297 @@
         <v>41</v>
       </c>
       <c r="W118" t="s">
+        <v>760</v>
+      </c>
+      <c r="X118" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>761</v>
+      </c>
+      <c r="B119" t="s">
+        <v>762</v>
+      </c>
+      <c r="C119" t="s">
+        <v>763</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" t="s">
         <v>764</v>
       </c>
-      <c r="X118" t="s">
-        <v>151</v>
+      <c r="I119" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" t="s">
+        <v>33</v>
+      </c>
+      <c r="L119" t="s">
+        <v>34</v>
+      </c>
+      <c r="M119" t="s">
+        <v>35</v>
+      </c>
+      <c r="N119" t="s">
+        <v>30</v>
+      </c>
+      <c r="O119" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>765</v>
+      </c>
+      <c r="R119" t="s">
+        <v>766</v>
+      </c>
+      <c r="S119" t="s">
+        <v>447</v>
+      </c>
+      <c r="T119" t="s">
+        <v>448</v>
+      </c>
+      <c r="U119" t="s">
+        <v>449</v>
+      </c>
+      <c r="V119" t="s">
+        <v>450</v>
+      </c>
+      <c r="W119" t="s">
+        <v>557</v>
+      </c>
+      <c r="X119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>767</v>
+      </c>
+      <c r="B120" t="s">
+        <v>768</v>
+      </c>
+      <c r="C120" t="s">
+        <v>769</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" t="s">
+        <v>770</v>
+      </c>
+      <c r="I120" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" t="s">
+        <v>33</v>
+      </c>
+      <c r="L120" t="s">
+        <v>34</v>
+      </c>
+      <c r="M120" t="s">
+        <v>35</v>
+      </c>
+      <c r="N120" t="s">
+        <v>30</v>
+      </c>
+      <c r="O120" t="s">
+        <v>30</v>
+      </c>
+      <c r="P120" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>771</v>
+      </c>
+      <c r="R120" t="s">
+        <v>772</v>
+      </c>
+      <c r="S120" t="s">
+        <v>205</v>
+      </c>
+      <c r="T120" t="s">
+        <v>39</v>
+      </c>
+      <c r="U120" t="s">
+        <v>40</v>
+      </c>
+      <c r="V120" t="s">
+        <v>41</v>
+      </c>
+      <c r="W120" t="s">
+        <v>773</v>
+      </c>
+      <c r="X120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>774</v>
+      </c>
+      <c r="B121" t="s">
+        <v>775</v>
+      </c>
+      <c r="C121" t="s">
+        <v>776</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" t="s">
+        <v>777</v>
+      </c>
+      <c r="I121" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" t="s">
+        <v>33</v>
+      </c>
+      <c r="L121" t="s">
+        <v>34</v>
+      </c>
+      <c r="M121" t="s">
+        <v>35</v>
+      </c>
+      <c r="N121" t="s">
+        <v>211</v>
+      </c>
+      <c r="O121" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>778</v>
+      </c>
+      <c r="R121" t="s">
+        <v>779</v>
+      </c>
+      <c r="S121" t="s">
+        <v>31</v>
+      </c>
+      <c r="T121" t="s">
+        <v>32</v>
+      </c>
+      <c r="U121" t="s">
+        <v>33</v>
+      </c>
+      <c r="V121" t="s">
+        <v>34</v>
+      </c>
+      <c r="W121" t="s">
+        <v>780</v>
+      </c>
+      <c r="X121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>781</v>
+      </c>
+      <c r="B122" t="s">
+        <v>782</v>
+      </c>
+      <c r="E122" t="s">
+        <v>165</v>
+      </c>
+      <c r="G122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" t="s">
+        <v>166</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" t="s">
+        <v>167</v>
+      </c>
+      <c r="L122" t="s">
+        <v>168</v>
+      </c>
+      <c r="M122" t="s">
+        <v>357</v>
+      </c>
+      <c r="N122" t="s">
+        <v>211</v>
+      </c>
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>580</v>
+      </c>
+      <c r="R122" t="s">
+        <v>783</v>
+      </c>
+      <c r="S122" t="s">
+        <v>166</v>
+      </c>
+      <c r="T122" t="s">
+        <v>43</v>
+      </c>
+      <c r="U122" t="s">
+        <v>167</v>
+      </c>
+      <c r="V122" t="s">
+        <v>168</v>
+      </c>
+      <c r="W122" t="s">
+        <v>784</v>
+      </c>
+      <c r="X122" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
